--- a/Code/Results/Cases/Case_1_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2693196287304573</v>
+        <v>0.1422953928028505</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0205020303825485</v>
+        <v>0.02986979417712377</v>
       </c>
       <c r="E2">
-        <v>0.104562599124197</v>
+        <v>0.1132051331550912</v>
       </c>
       <c r="F2">
-        <v>3.048905848745392</v>
+        <v>3.863606298255917</v>
       </c>
       <c r="G2">
-        <v>0.0008161923401206991</v>
+        <v>0.002591977397823942</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2339377390217408</v>
+        <v>0.2359202244399086</v>
       </c>
       <c r="K2">
-        <v>4.446395263701049</v>
+        <v>2.759205320682497</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.476816557964085</v>
+        <v>2.601452937013775</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2351033368538396</v>
+        <v>0.1330337524147467</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01780354095413728</v>
+        <v>0.02939990356929556</v>
       </c>
       <c r="E3">
-        <v>0.09259893211014258</v>
+        <v>0.1110817402023621</v>
       </c>
       <c r="F3">
-        <v>2.804668013639088</v>
+        <v>3.826381375827339</v>
       </c>
       <c r="G3">
-        <v>0.0008260792910293336</v>
+        <v>0.002598035515932952</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2085762669842239</v>
+        <v>0.2312728858244952</v>
       </c>
       <c r="K3">
-        <v>3.857412203009119</v>
+        <v>2.628518133706507</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.513093450867657</v>
+        <v>2.616286902221631</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2143206131137561</v>
+        <v>0.1274210055145915</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01615870709211364</v>
+        <v>0.02912535459915588</v>
       </c>
       <c r="E4">
-        <v>0.08544039145322913</v>
+        <v>0.1098432858726319</v>
       </c>
       <c r="F4">
-        <v>2.661478101578282</v>
+        <v>3.80562069958961</v>
       </c>
       <c r="G4">
-        <v>0.0008322965797720793</v>
+        <v>0.002601948534721726</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1934987271744575</v>
+        <v>0.2285620034034324</v>
       </c>
       <c r="K4">
-        <v>3.503785074472773</v>
+        <v>2.550079440510842</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.537399255900894</v>
+        <v>2.626138525903201</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2059019442105381</v>
+        <v>0.1251524408119877</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01549096965509378</v>
+        <v>0.02901700494232884</v>
       </c>
       <c r="E5">
-        <v>0.08256497449048794</v>
+        <v>0.1093549835966563</v>
       </c>
       <c r="F5">
-        <v>2.604663350778594</v>
+        <v>3.797685331502123</v>
       </c>
       <c r="G5">
-        <v>0.0008348693642289976</v>
+        <v>0.002603591907034501</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1874649738454863</v>
+        <v>0.2274929756088255</v>
       </c>
       <c r="K5">
-        <v>3.361426031748294</v>
+        <v>2.518565374956609</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.547788498731123</v>
+        <v>2.630339640690444</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2045068993607941</v>
+        <v>0.1247768777807465</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01538023292554769</v>
+        <v>0.02899922742517447</v>
       </c>
       <c r="E6">
-        <v>0.08208988871351508</v>
+        <v>0.1092748892266684</v>
       </c>
       <c r="F6">
-        <v>2.595317510257132</v>
+        <v>3.796399302003209</v>
       </c>
       <c r="G6">
-        <v>0.0008352990037401154</v>
+        <v>0.002603867739347924</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1864693644195228</v>
+        <v>0.2273176140813007</v>
       </c>
       <c r="K6">
-        <v>3.337885589144094</v>
+        <v>2.513359594506824</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.549542155592846</v>
+        <v>2.631048483171121</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2142068798419672</v>
+        <v>0.1273903351307126</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0161496920471258</v>
+        <v>0.0291238790336763</v>
       </c>
       <c r="E7">
-        <v>0.08540145022440271</v>
+        <v>0.1098366342035568</v>
       </c>
       <c r="F7">
-        <v>2.660705866720221</v>
+        <v>3.805511558546613</v>
       </c>
       <c r="G7">
-        <v>0.0008323311156752666</v>
+        <v>0.002601970499994229</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1934169239900783</v>
+        <v>0.2285474418918341</v>
       </c>
       <c r="K7">
-        <v>3.501858432621304</v>
+        <v>2.549652611651709</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.537537440600417</v>
+        <v>2.626194429126357</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2574708729839301</v>
+        <v>0.1390866797073471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01956878160730469</v>
+        <v>0.02970488864748333</v>
       </c>
       <c r="E8">
-        <v>0.1003953032994822</v>
+        <v>0.1124594011609936</v>
       </c>
       <c r="F8">
-        <v>2.963181303133297</v>
+        <v>3.850334869225293</v>
       </c>
       <c r="G8">
-        <v>0.0008195723789307318</v>
+        <v>0.002594026222030558</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2250816818258414</v>
+        <v>0.2342881139666417</v>
       </c>
       <c r="K8">
-        <v>4.241481778717855</v>
+        <v>2.713767996766023</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.488886462804999</v>
+        <v>2.606413093235162</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3444264011986036</v>
+        <v>0.1626075595674905</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02639436140569984</v>
+        <v>0.03095431094836698</v>
       </c>
       <c r="E9">
-        <v>0.1315543828745653</v>
+        <v>0.1181234809871086</v>
       </c>
       <c r="F9">
-        <v>3.61855606887346</v>
+        <v>3.954969090947515</v>
       </c>
       <c r="G9">
-        <v>0.0007955995071180288</v>
+        <v>0.002579973283323812</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2918061459768353</v>
+        <v>0.2466861241871641</v>
       </c>
       <c r="K9">
-        <v>5.769086305837902</v>
+        <v>3.050077680984657</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.410935926936631</v>
+        <v>2.57354228938506</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4100986646817546</v>
+        <v>0.1802435652080447</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03152355948869001</v>
+        <v>0.03193851352101973</v>
       </c>
       <c r="E10">
-        <v>0.1559499320249031</v>
+        <v>0.1226066486705335</v>
       </c>
       <c r="F10">
-        <v>4.151534758088275</v>
+        <v>4.042211549178404</v>
       </c>
       <c r="G10">
-        <v>0.000778439653322555</v>
+        <v>0.002570567432553006</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.344780300098023</v>
+        <v>0.256504263175259</v>
       </c>
       <c r="K10">
-        <v>6.960345862042686</v>
+        <v>3.306255953653988</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.36642154414146</v>
+        <v>2.553030338884042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4404881909447909</v>
+        <v>0.1883436943725343</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03389276121792761</v>
+        <v>0.03240047595943452</v>
       </c>
       <c r="E11">
-        <v>0.1674892976771574</v>
+        <v>0.1247170105541073</v>
       </c>
       <c r="F11">
-        <v>4.408785777624075</v>
+        <v>4.08418887451694</v>
       </c>
       <c r="G11">
-        <v>0.0007706826615708445</v>
+        <v>0.002566485565837725</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3700386392556254</v>
+        <v>0.2611279752003099</v>
       </c>
       <c r="K11">
-        <v>7.523087919972511</v>
+        <v>3.424832262645566</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.349502622161822</v>
+        <v>2.54449534584387</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4520817718227761</v>
+        <v>0.1914220860035414</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03479615975108175</v>
+        <v>0.03257744157168219</v>
       </c>
       <c r="E12">
-        <v>0.1719338391680765</v>
+        <v>0.125526421816005</v>
       </c>
       <c r="F12">
-        <v>4.508686468424287</v>
+        <v>4.100416776577816</v>
       </c>
       <c r="G12">
-        <v>0.0007677475349723234</v>
+        <v>0.002564967997813891</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3798000533935806</v>
+        <v>0.2629017246886036</v>
       </c>
       <c r="K12">
-        <v>7.739760486944249</v>
+        <v>3.470031693118699</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.343630892824152</v>
+        <v>2.541378385350214</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.449580872398144</v>
+        <v>0.1907586092367382</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03460130057240463</v>
+        <v>0.03253923883305276</v>
       </c>
       <c r="E13">
-        <v>0.1709730997240797</v>
+        <v>0.1253516431767494</v>
       </c>
       <c r="F13">
-        <v>4.487054214267175</v>
+        <v>4.096906998801501</v>
       </c>
       <c r="G13">
-        <v>0.000768379649888798</v>
+        <v>0.002565293584142288</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3776884864094967</v>
+        <v>0.2625186962254418</v>
       </c>
       <c r="K13">
-        <v>7.692926965148615</v>
+        <v>3.460283908314295</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.34487068640162</v>
+        <v>2.542044551853209</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4414402116435667</v>
+        <v>0.1885967345566115</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03396695268580885</v>
+        <v>0.03241499443348062</v>
       </c>
       <c r="E14">
-        <v>0.1678533817407413</v>
+        <v>0.124783395263151</v>
       </c>
       <c r="F14">
-        <v>4.416952603584377</v>
+        <v>4.085517284594118</v>
       </c>
       <c r="G14">
-        <v>0.0007704411714217763</v>
+        <v>0.002566360151651536</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3708375879908345</v>
+        <v>0.2612734434268731</v>
       </c>
       <c r="K14">
-        <v>7.540838414116195</v>
+        <v>3.428544869041048</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.349008474027443</v>
+        <v>2.544236602302618</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4364653573621666</v>
+        <v>0.1872739602403612</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03357924275236712</v>
+        <v>0.03233915505748541</v>
       </c>
       <c r="E15">
-        <v>0.1659525764371992</v>
+        <v>0.1244366653994788</v>
       </c>
       <c r="F15">
-        <v>4.374348597493906</v>
+        <v>4.078584071786963</v>
       </c>
       <c r="G15">
-        <v>0.0007717040546026954</v>
+        <v>0.002567017115269283</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3666677882057456</v>
+        <v>0.2605136724190089</v>
       </c>
       <c r="K15">
-        <v>7.448164053974608</v>
+        <v>3.409142605992088</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.351614490790439</v>
+        <v>2.54559429796231</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4081239656441511</v>
+        <v>0.1797157533811315</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0313695367331519</v>
+        <v>0.03190860828046738</v>
       </c>
       <c r="E16">
-        <v>0.1552056234298149</v>
+        <v>0.12247016435402</v>
       </c>
       <c r="F16">
-        <v>4.135049838860709</v>
+        <v>4.039514544840813</v>
       </c>
       <c r="G16">
-        <v>0.0007789471867952774</v>
+        <v>0.002570838139820926</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3431553946505232</v>
+        <v>0.2562052783175375</v>
       </c>
       <c r="K16">
-        <v>6.924035930998571</v>
+        <v>3.298548082643947</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.36759886304803</v>
+        <v>2.55360418868058</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3908771965605808</v>
+        <v>0.1750988072958819</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03002385924057904</v>
+        <v>0.03164811716166582</v>
       </c>
       <c r="E17">
-        <v>0.148733363442247</v>
+        <v>0.1212819935530192</v>
       </c>
       <c r="F17">
-        <v>3.992274746897237</v>
+        <v>4.016135129261244</v>
       </c>
       <c r="G17">
-        <v>0.0007834000129774789</v>
+        <v>0.002573232525991465</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3290482093259328</v>
+        <v>0.2536026830396452</v>
       </c>
       <c r="K17">
-        <v>6.608219508744071</v>
+        <v>3.231227025092039</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.378295157285692</v>
+        <v>2.558722289571051</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3810049975637355</v>
+        <v>0.172450554316967</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02925316733896466</v>
+        <v>0.0314996312839213</v>
       </c>
       <c r="E18">
-        <v>0.1450514943313195</v>
+        <v>0.1206052631847676</v>
       </c>
       <c r="F18">
-        <v>3.911522558835372</v>
+        <v>4.002903318873365</v>
       </c>
       <c r="G18">
-        <v>0.0007859661093450403</v>
+        <v>0.002574628257325507</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3210412896379466</v>
+        <v>0.2521205402166373</v>
       </c>
       <c r="K18">
-        <v>6.428491475805117</v>
+        <v>3.192697466324603</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.38475707586683</v>
+        <v>2.561740972733048</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3776702971990886</v>
+        <v>0.1715551564166873</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02899276222753855</v>
+        <v>0.03144958750850435</v>
       </c>
       <c r="E19">
-        <v>0.1438115678665</v>
+        <v>0.1203772783564254</v>
       </c>
       <c r="F19">
-        <v>3.884406255380839</v>
+        <v>3.99846017212738</v>
       </c>
       <c r="G19">
-        <v>0.0007868359295833419</v>
+        <v>0.002575104017711711</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3183478556931618</v>
+        <v>0.2516212476845254</v>
       </c>
       <c r="K19">
-        <v>6.367952455389229</v>
+        <v>3.179684833473232</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.386996588617052</v>
+        <v>2.562775890957525</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3927081290090086</v>
+        <v>0.1755895349795225</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0301667595095978</v>
+        <v>0.0316757081531307</v>
       </c>
       <c r="E20">
-        <v>0.1494180471135635</v>
+        <v>0.1214077851885378</v>
       </c>
       <c r="F20">
-        <v>4.007329375959472</v>
+        <v>4.018601594651386</v>
       </c>
       <c r="G20">
-        <v>0.0007829255223778663</v>
+        <v>0.002572975721641269</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3305386515773989</v>
+        <v>0.2538782003276907</v>
       </c>
       <c r="K20">
-        <v>6.641635966228137</v>
+        <v>3.238373595185408</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.377124087355838</v>
+        <v>2.558169704224696</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4438288941271793</v>
+        <v>0.1892314303709668</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03415309747437334</v>
+        <v>0.03245143305925779</v>
       </c>
       <c r="E21">
-        <v>0.168767588401586</v>
+        <v>0.1249500244191495</v>
       </c>
       <c r="F21">
-        <v>4.43747255762483</v>
+        <v>4.088853687904475</v>
       </c>
       <c r="G21">
-        <v>0.0007698356326030592</v>
+        <v>0.002566046112448055</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3728442649217527</v>
+        <v>0.2616385824592129</v>
       </c>
       <c r="K21">
-        <v>7.585408417674614</v>
+        <v>3.437859298199896</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.347778091475007</v>
+        <v>2.543589616582821</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4777454619534041</v>
+        <v>0.198211558276796</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0367953606064404</v>
+        <v>0.03297024127854797</v>
       </c>
       <c r="E22">
-        <v>0.1818564471834705</v>
+        <v>0.1273249329201604</v>
       </c>
       <c r="F22">
-        <v>4.733292323407937</v>
+        <v>4.136703914485082</v>
       </c>
       <c r="G22">
-        <v>0.0007612911135936648</v>
+        <v>0.002561681191833802</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.401657046017732</v>
+        <v>0.2668437328067341</v>
       </c>
       <c r="K22">
-        <v>8.223393188078433</v>
+        <v>3.569968650073235</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.331750586462164</v>
+        <v>2.534731603907872</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4595929842757585</v>
+        <v>0.1934128336955752</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03538135241112172</v>
+        <v>0.03269226714149198</v>
       </c>
       <c r="E23">
-        <v>0.1748259308124958</v>
+        <v>0.1260519025892393</v>
       </c>
       <c r="F23">
-        <v>4.573929167295063</v>
+        <v>4.110987272640443</v>
       </c>
       <c r="G23">
-        <v>0.0007658523112339486</v>
+        <v>0.002563995883553695</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3861614924048951</v>
+        <v>0.2640533768431936</v>
       </c>
       <c r="K23">
-        <v>7.880734249311445</v>
+        <v>3.499299446022633</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.339995415180852</v>
+        <v>2.539397704478645</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.391880230760421</v>
+        <v>0.1753676580159862</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03010214516892518</v>
+        <v>0.03166323029574869</v>
       </c>
       <c r="E24">
-        <v>0.1491083806077</v>
+        <v>0.1213508949695452</v>
       </c>
       <c r="F24">
-        <v>4.000519058298948</v>
+        <v>4.017485853841663</v>
       </c>
       <c r="G24">
-        <v>0.0007831400200489657</v>
+        <v>0.002573091763182312</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.329864502475246</v>
+        <v>0.2537535949854828</v>
       </c>
       <c r="K24">
-        <v>6.626522700065095</v>
+        <v>3.235142088499572</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.377652558912885</v>
+        <v>2.558419290700201</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.320627925891003</v>
+        <v>0.1561820874986353</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02453105794528199</v>
+        <v>0.03060461503518042</v>
       </c>
       <c r="E25">
-        <v>0.1228958083517959</v>
+        <v>0.1165350047765124</v>
       </c>
       <c r="F25">
-        <v>3.433309474201025</v>
+        <v>3.924854191599252</v>
       </c>
       <c r="G25">
-        <v>0.000801990425176691</v>
+        <v>0.002583612802405131</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2731522772188981</v>
+        <v>0.2432085963171176</v>
       </c>
       <c r="K25">
-        <v>5.345484579732101</v>
+        <v>2.95751981695139</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.429953547855291</v>
+        <v>2.581797932971853</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1422953928028505</v>
+        <v>0.2693196287305284</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02986979417712377</v>
+        <v>0.02050203038253784</v>
       </c>
       <c r="E2">
-        <v>0.1132051331550912</v>
+        <v>0.104562599124197</v>
       </c>
       <c r="F2">
-        <v>3.863606298255917</v>
+        <v>3.048905848745392</v>
       </c>
       <c r="G2">
-        <v>0.002591977397823942</v>
+        <v>0.0008161923400599829</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2359202244399086</v>
+        <v>0.2339377390217834</v>
       </c>
       <c r="K2">
-        <v>2.759205320682497</v>
+        <v>4.446395263701049</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.601452937013775</v>
+        <v>1.476816557964085</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1330337524147467</v>
+        <v>0.2351033368536974</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02939990356929556</v>
+        <v>0.01780354095402004</v>
       </c>
       <c r="E3">
-        <v>0.1110817402023621</v>
+        <v>0.09259893211013903</v>
       </c>
       <c r="F3">
-        <v>3.826381375827339</v>
+        <v>2.804668013639102</v>
       </c>
       <c r="G3">
-        <v>0.002598035515932952</v>
+        <v>0.000826079291027267</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2312728858244952</v>
+        <v>0.2085762669842524</v>
       </c>
       <c r="K3">
-        <v>2.628518133706507</v>
+        <v>3.857412203009005</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.616286902221631</v>
+        <v>1.513093450867643</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1274210055145915</v>
+        <v>0.2143206131136139</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02912535459915588</v>
+        <v>0.01615870709223088</v>
       </c>
       <c r="E4">
-        <v>0.1098432858726319</v>
+        <v>0.08544039145324334</v>
       </c>
       <c r="F4">
-        <v>3.80562069958961</v>
+        <v>2.661478101578297</v>
       </c>
       <c r="G4">
-        <v>0.002601948534721726</v>
+        <v>0.0008322965798255719</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2285620034034324</v>
+        <v>0.1934987271744504</v>
       </c>
       <c r="K4">
-        <v>2.550079440510842</v>
+        <v>3.503785074472773</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.626138525903201</v>
+        <v>1.537399255900951</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1251524408119877</v>
+        <v>0.2059019442102965</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02901700494232884</v>
+        <v>0.01549096965509023</v>
       </c>
       <c r="E5">
-        <v>0.1093549835966563</v>
+        <v>0.08256497449048439</v>
       </c>
       <c r="F5">
-        <v>3.797685331502123</v>
+        <v>2.604663350778594</v>
       </c>
       <c r="G5">
-        <v>0.002603591907034501</v>
+        <v>0.0008348693641167886</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2274929756088255</v>
+        <v>0.1874649738454224</v>
       </c>
       <c r="K5">
-        <v>2.518565374956609</v>
+        <v>3.361426031748351</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.630339640690444</v>
+        <v>1.547788498731173</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1247768777807465</v>
+        <v>0.2045068993606804</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02899922742517447</v>
+        <v>0.01538023292554769</v>
       </c>
       <c r="E6">
-        <v>0.1092748892266684</v>
+        <v>0.08208988871351508</v>
       </c>
       <c r="F6">
-        <v>3.796399302003209</v>
+        <v>2.595317510257132</v>
       </c>
       <c r="G6">
-        <v>0.002603867739347924</v>
+        <v>0.0008352990037406755</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2273176140813007</v>
+        <v>0.1864693644195938</v>
       </c>
       <c r="K6">
-        <v>2.513359594506824</v>
+        <v>3.337885589144037</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.631048483171121</v>
+        <v>1.549542155592789</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1273903351307126</v>
+        <v>0.2142068798419388</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0291238790336763</v>
+        <v>0.01614969204711869</v>
       </c>
       <c r="E7">
-        <v>0.1098366342035568</v>
+        <v>0.08540145022441692</v>
       </c>
       <c r="F7">
-        <v>3.805511558546613</v>
+        <v>2.660705866720235</v>
       </c>
       <c r="G7">
-        <v>0.002601970499994229</v>
+        <v>0.0008323311156220264</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2285474418918341</v>
+        <v>0.1934169239900072</v>
       </c>
       <c r="K7">
-        <v>2.549652611651709</v>
+        <v>3.501858432621361</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.626194429126357</v>
+        <v>1.537537440600346</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390866797073471</v>
+        <v>0.2574708729839728</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02970488864748333</v>
+        <v>0.01956878160742548</v>
       </c>
       <c r="E8">
-        <v>0.1124594011609936</v>
+        <v>0.1003953032994858</v>
       </c>
       <c r="F8">
-        <v>3.850334869225293</v>
+        <v>2.963181303133297</v>
       </c>
       <c r="G8">
-        <v>0.002594026222030558</v>
+        <v>0.0008195723789309553</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2342881139666417</v>
+        <v>0.2250816818257704</v>
       </c>
       <c r="K8">
-        <v>2.713767996766023</v>
+        <v>4.241481778717741</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.606413093235162</v>
+        <v>1.488886462805013</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1626075595674905</v>
+        <v>0.3444264011986888</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03095431094836698</v>
+        <v>0.02639436140581353</v>
       </c>
       <c r="E9">
-        <v>0.1181234809871086</v>
+        <v>0.1315543828745263</v>
       </c>
       <c r="F9">
-        <v>3.954969090947515</v>
+        <v>3.618556068873517</v>
       </c>
       <c r="G9">
-        <v>0.002579973283323812</v>
+        <v>0.0007955995071815758</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2466861241871641</v>
+        <v>0.2918061459770058</v>
       </c>
       <c r="K9">
-        <v>3.050077680984657</v>
+        <v>5.769086305838016</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.57354228938506</v>
+        <v>1.410935926936574</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1802435652080447</v>
+        <v>0.4100986646818683</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03193851352101973</v>
+        <v>0.03152355948833474</v>
       </c>
       <c r="E10">
-        <v>0.1226066486705335</v>
+        <v>0.1559499320249458</v>
       </c>
       <c r="F10">
-        <v>4.042211549178404</v>
+        <v>4.151534758088275</v>
       </c>
       <c r="G10">
-        <v>0.002570567432553006</v>
+        <v>0.0007784396532551081</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.256504263175259</v>
+        <v>0.3447803000979661</v>
       </c>
       <c r="K10">
-        <v>3.306255953653988</v>
+        <v>6.960345862042686</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.553030338884042</v>
+        <v>1.36642154414146</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1883436943725343</v>
+        <v>0.4404881909448903</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03240047595943452</v>
+        <v>0.03389276121867368</v>
       </c>
       <c r="E11">
-        <v>0.1247170105541073</v>
+        <v>0.1674892976770792</v>
       </c>
       <c r="F11">
-        <v>4.08418887451694</v>
+        <v>4.408785777624104</v>
       </c>
       <c r="G11">
-        <v>0.002566485565837725</v>
+        <v>0.0007706826615558924</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2611279752003099</v>
+        <v>0.3700386392558244</v>
       </c>
       <c r="K11">
-        <v>3.424832262645566</v>
+        <v>7.523087919972795</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.54449534584387</v>
+        <v>1.349502622161765</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1914220860035414</v>
+        <v>0.4520817718228471</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03257744157168219</v>
+        <v>0.03479615975109596</v>
       </c>
       <c r="E12">
-        <v>0.125526421816005</v>
+        <v>0.171933839168112</v>
       </c>
       <c r="F12">
-        <v>4.100416776577816</v>
+        <v>4.508686468424344</v>
       </c>
       <c r="G12">
-        <v>0.002564967997813891</v>
+        <v>0.0007677475349732183</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2629017246886036</v>
+        <v>0.3798000533935806</v>
       </c>
       <c r="K12">
-        <v>3.470031693118699</v>
+        <v>7.739760486944249</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.541378385350214</v>
+        <v>1.343630892824095</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1907586092367382</v>
+        <v>0.4495808723981725</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03253923883305276</v>
+        <v>0.03460130057241173</v>
       </c>
       <c r="E13">
-        <v>0.1253516431767494</v>
+        <v>0.1709730997240868</v>
       </c>
       <c r="F13">
-        <v>4.096906998801501</v>
+        <v>4.487054214267147</v>
       </c>
       <c r="G13">
-        <v>0.002565293584142288</v>
+        <v>0.0007683796498896545</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2625186962254418</v>
+        <v>0.3776884864096672</v>
       </c>
       <c r="K13">
-        <v>3.460283908314295</v>
+        <v>7.692926965148672</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.542044551853209</v>
+        <v>1.344870686401563</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1885967345566115</v>
+        <v>0.4414402116435241</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03241499443348062</v>
+        <v>0.03396695268583727</v>
       </c>
       <c r="E14">
-        <v>0.124783395263151</v>
+        <v>0.1678533817407484</v>
       </c>
       <c r="F14">
-        <v>4.085517284594118</v>
+        <v>4.416952603584406</v>
       </c>
       <c r="G14">
-        <v>0.002566360151651536</v>
+        <v>0.0007704411713672795</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2612734434268731</v>
+        <v>0.3708375879907351</v>
       </c>
       <c r="K14">
-        <v>3.428544869041048</v>
+        <v>7.540838414116195</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.544236602302618</v>
+        <v>1.349008474027386</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1872739602403612</v>
+        <v>0.4364653573622377</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03233915505748541</v>
+        <v>0.03357924275244528</v>
       </c>
       <c r="E15">
-        <v>0.1244366653994788</v>
+        <v>0.1659525764371921</v>
       </c>
       <c r="F15">
-        <v>4.078584071786963</v>
+        <v>4.374348597493935</v>
       </c>
       <c r="G15">
-        <v>0.002567017115269283</v>
+        <v>0.0007717040546013275</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2605136724190089</v>
+        <v>0.3666677882057314</v>
       </c>
       <c r="K15">
-        <v>3.409142605992088</v>
+        <v>7.448164053974551</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.54559429796231</v>
+        <v>1.351614490790425</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1797157533811315</v>
+        <v>0.4081239656440943</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03190860828046738</v>
+        <v>0.0313695367331519</v>
       </c>
       <c r="E16">
-        <v>0.12247016435402</v>
+        <v>0.1552056234297723</v>
       </c>
       <c r="F16">
-        <v>4.039514544840813</v>
+        <v>4.135049838860681</v>
       </c>
       <c r="G16">
-        <v>0.002570838139820926</v>
+        <v>0.0007789471868082816</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2562052783175375</v>
+        <v>0.3431553946505517</v>
       </c>
       <c r="K16">
-        <v>3.298548082643947</v>
+        <v>6.9240359309984</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.55360418868058</v>
+        <v>1.36759886304803</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1750988072958819</v>
+        <v>0.3908771965606377</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03164811716166582</v>
+        <v>0.03002385924070694</v>
       </c>
       <c r="E17">
-        <v>0.1212819935530192</v>
+        <v>0.1487333634422399</v>
       </c>
       <c r="F17">
-        <v>4.016135129261244</v>
+        <v>3.992274746897237</v>
       </c>
       <c r="G17">
-        <v>0.002573232525991465</v>
+        <v>0.0007834000130334716</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2536026830396452</v>
+        <v>0.3290482093257907</v>
       </c>
       <c r="K17">
-        <v>3.231227025092039</v>
+        <v>6.608219508744071</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.558722289571051</v>
+        <v>1.378295157285677</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.172450554316967</v>
+        <v>0.3810049975637213</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0314996312839213</v>
+        <v>0.02925316733874439</v>
       </c>
       <c r="E18">
-        <v>0.1206052631847676</v>
+        <v>0.145051494331323</v>
       </c>
       <c r="F18">
-        <v>4.002903318873365</v>
+        <v>3.911522558835372</v>
       </c>
       <c r="G18">
-        <v>0.002574628257325507</v>
+        <v>0.0007859661093457233</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2521205402166373</v>
+        <v>0.3210412896378614</v>
       </c>
       <c r="K18">
-        <v>3.192697466324603</v>
+        <v>6.42849147580506</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.561740972733048</v>
+        <v>1.384757075866844</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1715551564166873</v>
+        <v>0.3776702971991313</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03144958750850435</v>
+        <v>0.02899276222729696</v>
       </c>
       <c r="E19">
-        <v>0.1203772783564254</v>
+        <v>0.1438115678665035</v>
       </c>
       <c r="F19">
-        <v>3.99846017212738</v>
+        <v>3.88440625538081</v>
       </c>
       <c r="G19">
-        <v>0.002575104017711711</v>
+        <v>0.0007868359295833578</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2516212476845254</v>
+        <v>0.3183478556931192</v>
       </c>
       <c r="K19">
-        <v>3.179684833473232</v>
+        <v>6.367952455389286</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.562775890957525</v>
+        <v>1.386996588617052</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1755895349795225</v>
+        <v>0.3927081290091223</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0316757081531307</v>
+        <v>0.03016675950919989</v>
       </c>
       <c r="E20">
-        <v>0.1214077851885378</v>
+        <v>0.1494180471135849</v>
       </c>
       <c r="F20">
-        <v>4.018601594651386</v>
+        <v>4.007329375959472</v>
       </c>
       <c r="G20">
-        <v>0.002572975721641269</v>
+        <v>0.0007829255222478475</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2538782003276907</v>
+        <v>0.33053865157747</v>
       </c>
       <c r="K20">
-        <v>3.238373595185408</v>
+        <v>6.64163596622808</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.558169704224696</v>
+        <v>1.377124087355796</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1892314303709668</v>
+        <v>0.4438288941271793</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03245143305925779</v>
+        <v>0.03415309747415307</v>
       </c>
       <c r="E21">
-        <v>0.1249500244191495</v>
+        <v>0.1687675884015789</v>
       </c>
       <c r="F21">
-        <v>4.088853687904475</v>
+        <v>4.43747255762483</v>
       </c>
       <c r="G21">
-        <v>0.002566046112448055</v>
+        <v>0.0007698356326030617</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2616385824592129</v>
+        <v>0.3728442649216248</v>
       </c>
       <c r="K21">
-        <v>3.437859298199896</v>
+        <v>7.5854084176745</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.543589616582821</v>
+        <v>1.347778091475021</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.198211558276796</v>
+        <v>0.4777454619533472</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03297024127854797</v>
+        <v>0.03679536060645461</v>
       </c>
       <c r="E22">
-        <v>0.1273249329201604</v>
+        <v>0.181856447183435</v>
       </c>
       <c r="F22">
-        <v>4.136703914485082</v>
+        <v>4.733292323407966</v>
       </c>
       <c r="G22">
-        <v>0.002561681191833802</v>
+        <v>0.0007612911135390868</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2668437328067341</v>
+        <v>0.4016570460175757</v>
       </c>
       <c r="K22">
-        <v>3.569968650073235</v>
+        <v>8.223393188078489</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.534731603907872</v>
+        <v>1.331750586462178</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1934128336955752</v>
+        <v>0.4595929842757158</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03269226714149198</v>
+        <v>0.03538135241112172</v>
       </c>
       <c r="E23">
-        <v>0.1260519025892393</v>
+        <v>0.1748259308124531</v>
       </c>
       <c r="F23">
-        <v>4.110987272640443</v>
+        <v>4.573929167295091</v>
       </c>
       <c r="G23">
-        <v>0.002563995883553695</v>
+        <v>0.0007658523113791204</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2640533768431936</v>
+        <v>0.3861614924049519</v>
       </c>
       <c r="K23">
-        <v>3.499299446022633</v>
+        <v>7.880734249311331</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.539397704478645</v>
+        <v>1.339995415180866</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1753676580159862</v>
+        <v>0.3918802307603642</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03166323029574869</v>
+        <v>0.03010214516891807</v>
       </c>
       <c r="E24">
-        <v>0.1213508949695452</v>
+        <v>0.1491083806076574</v>
       </c>
       <c r="F24">
-        <v>4.017485853841663</v>
+        <v>4.000519058298977</v>
       </c>
       <c r="G24">
-        <v>0.002573091763182312</v>
+        <v>0.0007831400201168437</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2537535949854828</v>
+        <v>0.3298645024751181</v>
       </c>
       <c r="K24">
-        <v>3.235142088499572</v>
+        <v>6.626522700065038</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.558419290700201</v>
+        <v>1.377652558912828</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1561820874986353</v>
+        <v>0.3206279258908893</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03060461503518042</v>
+        <v>0.02453105794526067</v>
       </c>
       <c r="E25">
-        <v>0.1165350047765124</v>
+        <v>0.1228958083517995</v>
       </c>
       <c r="F25">
-        <v>3.924854191599252</v>
+        <v>3.433309474201053</v>
       </c>
       <c r="G25">
-        <v>0.002583612802405131</v>
+        <v>0.00080199042523983</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2432085963171176</v>
+        <v>0.2731522772188555</v>
       </c>
       <c r="K25">
-        <v>2.95751981695139</v>
+        <v>5.345484579732215</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.581797932971853</v>
+        <v>1.429953547855291</v>
       </c>
       <c r="O25">
         <v>0</v>
